--- a/biology/Botanique/Lodd/Lodd..xlsx
+++ b/biology/Botanique/Lodd/Lodd..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conrad Loddiges est un botaniste et un horticulteur britannique d’origine  allemande, né en 1738 à Vristerbholtzen près de Hanovre et mort le 13 mars 1826 à Hackney dans Londres.
 Il vient en Grande-Bretagne vers 1761 comme jardinier auprès de Sir John B. Silvester à Hackney. En 1771, il reprend la pépinière fondée par John Busch (v. 1730-1838). Il transmettra cette entreprise à ses fils William Loddiges (v. 1776-1849) et George Loddiges (1784-1846). Conrad Loddiges introduit des plantes qu’il reçoit de François André Michaux (1770-1855) et de John Bartram (1699-1777). John Sims (1749-1831) lui dédie en 1808 le genre Loddigesia de la famille des Leguminosae.
